--- a/data/hotels_by_city/Houston/Houston_shard_641.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_641.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="377">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56577-d1556883-Reviews-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Rosenberg-Hotels-Super-8-By-Wyndham-Rosenberg-TX.h3025097.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1009 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r585171128-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>56577</t>
+  </si>
+  <si>
+    <t>1556883</t>
+  </si>
+  <si>
+    <t>585171128</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>TRIP</t>
+  </si>
+  <si>
+    <t>I recommend the hotel, the rooms are  clean and the bed is comfortable good a/c we staid for tree nights, there's a restaurant around the hotel nice hospitality. the front desk people they were friendly people.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Alex K, Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded June 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2018</t>
+  </si>
+  <si>
+    <t>I recommend the hotel, the rooms are  clean and the bed is comfortable good a/c we staid for tree nights, there's a restaurant around the hotel nice hospitality. the front desk people they were friendly people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r566749461-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>566749461</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r558280977-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>558280977</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Had a great stay every thing was great ,clean,up to date.loved the rooms and they smelled great also nice size bath rooms and great bed to sleep in. ThanksMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Alex K, Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded February 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2018</t>
+  </si>
+  <si>
+    <t>Had a great stay every thing was great ,clean,up to date.loved the rooms and they smelled great also nice size bath rooms and great bed to sleep in. ThanksMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r532742645-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>532742645</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>Not so super</t>
+  </si>
+  <si>
+    <t>Very expensive overnight stay. Very disappointed in the room. They said there was no damage to the property due to the recent hurricane. However the stench of mold &amp; musk in the room was overwhelming. We ran the bathroom fan &amp; air conditioning all night long for our breathing safety concerns with the annoyance of the noise all night........</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r530036508-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>530036508</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Harvey victims and support had nearly all the rooms in...</t>
+  </si>
+  <si>
+    <t>Harvey victims and support had nearly all the rooms in Houston. Considering situation, price was right. Motel was clean. Staff was friendly. Got a good nights sleep. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Alex K, General Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded October 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2017</t>
+  </si>
+  <si>
+    <t>Harvey victims and support had nearly all the rooms in Houston. Considering situation, price was right. Motel was clean. Staff was friendly. Got a good nights sleep. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r529604695-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>529604695</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>Alex K, Front Office Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded October 6, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r511055158-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>511055158</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>VERY Clean (for local standards); Lower $$ than nrby Sugar Land/HOU</t>
+  </si>
+  <si>
+    <t>PROS: Very clean, relatively quiet property (visibly cleaner than other local properties), NO potholed parking lot. Located US 59/I-69 at (major) TX Hwy 36 exit, w/ fast food, gas stations at walking distance.  Am Wynham Rewards member, used pts for final price--$30 LESS! than similar lodging in nearby Sugar Land (SL), Stafford. R'berg nr SL, where grew up, came from Wash, DC area back to Texas to 40-yr Dulles HS reunion; I wanted to save trip money. SL. Stafford, Katy populations has crazily skyrocketed! (10,000 in 1980 to 100,000 now). Also, their hotel/motel prices shot up--much higher than Rosenberg, Yet, some in SL, Stafford, HOU lack nice staffs, not clean, are noisier than R'berg. If traveler to Houston doesn't mind driving 30 miles out to save $$$, or going Victoria, Corpus, Rio Grande Valley, Laredo, Republic of Mexico and need a good rest before driving 2-6 hours, this Rosenberg Super 8 a nice stop for lower price! CONS: Slow Internet; Soda Machine not working; No upstairs elevator for handicapped;  a few blue-collar patrons leave nasty boots outside room for periods without moving them, but..that's Texas!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Alex K, Public Relations Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded October 6, 2017</t>
+  </si>
+  <si>
+    <t>PROS: Very clean, relatively quiet property (visibly cleaner than other local properties), NO potholed parking lot. Located US 59/I-69 at (major) TX Hwy 36 exit, w/ fast food, gas stations at walking distance.  Am Wynham Rewards member, used pts for final price--$30 LESS! than similar lodging in nearby Sugar Land (SL), Stafford. R'berg nr SL, where grew up, came from Wash, DC area back to Texas to 40-yr Dulles HS reunion; I wanted to save trip money. SL. Stafford, Katy populations has crazily skyrocketed! (10,000 in 1980 to 100,000 now). Also, their hotel/motel prices shot up--much higher than Rosenberg, Yet, some in SL, Stafford, HOU lack nice staffs, not clean, are noisier than R'berg. If traveler to Houston doesn't mind driving 30 miles out to save $$$, or going Victoria, Corpus, Rio Grande Valley, Laredo, Republic of Mexico and need a good rest before driving 2-6 hours, this Rosenberg Super 8 a nice stop for lower price! CONS: Slow Internet; Soda Machine not working; No upstairs elevator for handicapped;  a few blue-collar patrons leave nasty boots outside room for periods without moving them, but..that's Texas!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r505103561-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>505103561</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never again </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 1st room I got had ants in the towels, stains on the sheets and smelled of nastiness like feet or b/o switched rooms come to find out all the rooms smell this bad.  It's a strong unbearable stench. </t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r503560106-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>503560106</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r490732471-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>490732471</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>nasty stay</t>
+  </si>
+  <si>
+    <t>this place didnt have running water so i could not take a bath and once they finally fixed there water it was brown and dirty n no hot water never again will i stay there!!</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r489625045-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>489625045</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Feedback for Super 8 Rosenberg</t>
+  </si>
+  <si>
+    <t>When I checked in, I was advised the toilet did not work. We had to turn the water on and off for each use. The next morning, we had no water pressure. We could not take a shower, and could barely brush our teeth. Right before checking out, the water came back, and was brown.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r482923639-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>482923639</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>super8rosenebrg, Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r470147168-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>470147168</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r467286423-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>467286423</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>super8rosenebrg, Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded March 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r466760621-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>466760621</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r432975023-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>432975023</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t>My two day stay</t>
+  </si>
+  <si>
+    <t>Room was very nice, size and price were very fair.  Bathroom was very clean and sink area was perfect.  The room was bigger than I thought it would be and that was a good thing.  TV however was not very clear for HD.  Will stay here again if in town in future.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>super8rosenebrg, Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Room was very nice, size and price were very fair.  Bathroom was very clean and sink area was perfect.  The room was bigger than I thought it would be and that was a good thing.  TV however was not very clear for HD.  Will stay here again if in town in future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r422887405-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>422887405</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>super8rosenebrg, Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded October 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r420979820-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>420979820</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>We had a wonderful stay here. The place is newer and well maintained. The staff was very nice. This is located near many local attractions. I highly recommend this place. I think it would make for a nuce business stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>We had a wonderful stay here. The place is newer and well maintained. The staff was very nice. This is located near many local attractions. I highly recommend this place. I think it would make for a nuce business stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r415855357-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>415855357</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>2 nite stay</t>
+  </si>
+  <si>
+    <t>The room smelled like it wasn't opened up in weeks.  Very smelly and musty .  I had to go out and buy room freshener just so my wife and I could sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>super8rosenebrg, Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded September 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2016</t>
+  </si>
+  <si>
+    <t>The room smelled like it wasn't opened up in weeks.  Very smelly and musty .  I had to go out and buy room freshener just so my wife and I could sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r415383438-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>415383438</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>monthly visit</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel at least four days a month since April, and the staff is great.  They have even remembered my name.  Rooms are clean and good for the price.  I look forward to this stay, even though Hotel living is not great.  MoreShow less</t>
+  </si>
+  <si>
+    <t>super8rosenebrg, Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded September 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2016</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel at least four days a month since April, and the staff is great.  They have even remembered my name.  Rooms are clean and good for the price.  I look forward to this stay, even though Hotel living is not great.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r412954689-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>412954689</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>very nice property</t>
+  </si>
+  <si>
+    <t>Very nice property in a very convenient location , close to the fort bend fairgrounds.. Rooms are clean, comfortable with all amenities.. Breakfast  has several choices including waffles, and eating area is bright and spacious..  Owners are really nice people and very helpful.. I have stayed here several times and will continue to do so..MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice property in a very convenient location , close to the fort bend fairgrounds.. Rooms are clean, comfortable with all amenities.. Breakfast  has several choices including waffles, and eating area is bright and spacious..  Owners are really nice people and very helpful.. I have stayed here several times and will continue to do so..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r389499030-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>389499030</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Dirty Rooms- 5 of them</t>
+  </si>
+  <si>
+    <t>I went to check in and try 5 different rooms and all of them were super dirty. one have sheets that smelled like someone urinate on them, another had condoms in the room, another one had a whole in the middle of the bed,. I was not sastified because I was traveling with my two young children and it was just simply nasty.  I told the front desk agent to tell the manager to call me, and when he did call me the next day, he had no answer nor excuses for all dirty rooms. disgusting!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Management R, Front Office Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>I went to check in and try 5 different rooms and all of them were super dirty. one have sheets that smelled like someone urinate on them, another had condoms in the room, another one had a whole in the middle of the bed,. I was not sastified because I was traveling with my two young children and it was just simply nasty.  I told the front desk agent to tell the manager to call me, and when he did call me the next day, he had no answer nor excuses for all dirty rooms. disgusting!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r365445059-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>365445059</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r363621952-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>363621952</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>Mediocrity at its best</t>
+  </si>
+  <si>
+    <t>There is nothing special about this place, you can probably survive spending a night there but don't count on anything special to make your stay a pleasant one. It's one of those places that cut the costs in all possible ways. Too few towels for the number of guests. Housekeeping could be better : Check the fridge of items left there by previous guests, for example. And that printout with hotel information : torn, with coffee stains.Somehow, I don't feel welcome in a place like this.MoreShow less</t>
+  </si>
+  <si>
+    <t>There is nothing special about this place, you can probably survive spending a night there but don't count on anything special to make your stay a pleasant one. It's one of those places that cut the costs in all possible ways. Too few towels for the number of guests. Housekeeping could be better : Check the fridge of items left there by previous guests, for example. And that printout with hotel information : torn, with coffee stains.Somehow, I don't feel welcome in a place like this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r356777095-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>356777095</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>Good Place for a One Nighter</t>
+  </si>
+  <si>
+    <t>Stayed at this location as an over night while traveling. In expensive, clean and at a good location. Several places to eat, chains and local places, close to the hotel. Free breakfast at hotel is sparse, but the coffee is pretty good.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r354906954-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>354906954</t>
+  </si>
+  <si>
+    <t>03/12/2016</t>
+  </si>
+  <si>
+    <t>Customer Service poor</t>
+  </si>
+  <si>
+    <t>The bathrooms did not have towels and the lady working the counter did not seem happy to work there. The continental breakfast was not great either. The wifi number did not work as well.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r352880363-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>352880363</t>
+  </si>
+  <si>
+    <t>03/04/2016</t>
+  </si>
+  <si>
+    <t>Work visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel staff was nice and cordial Area is not so safe looking but wasn't to badHotel is older and a little out dated Could use some updates </t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r334050076-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>334050076</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>cozy</t>
+  </si>
+  <si>
+    <t>It's great place to stay,you got lots of restaurants all arround...good customer service...cc forbes company..</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r329105209-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>329105209</t>
+  </si>
+  <si>
+    <t>11/25/2015</t>
+  </si>
+  <si>
+    <t>Atlas installation.  We were building conveyor  system for frito-lay</t>
+  </si>
+  <si>
+    <t>It is a newly remodeled hotel with big double bed rooms there more than enough space for double beds .  They cleaned room first mornig and they were tidy as far as luggage just being thrown down. I wasnt scared to crawl in bed after 14 hour day clean bedding.  The water pressure  i didnt enjoy it was like taking bird bath. And there were no meats on continental breakfast menu people like bacon or sausage and eggs. But it in a good location most evwrything i needed in walking distance. Variety of food beautiful weather.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r328893853-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>328893853</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>Very Suitable for the Price!</t>
+  </si>
+  <si>
+    <t>Older furnishing and carpeting but clean. Very nice staff. Spent my first 4 days here, while working in the area. Spent my next 4 days at a fancier and more costly hotel in the area, where I was bitten by fleas. Came back to the Rosenberg Super 8 for my final 3 weeks in the area. I really enjoyed the place and staff. Some people can stay here and say "they didn't like it," but you can go to a more expensive hotel, and not like it also. This facility was worth the money I spent.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r319943043-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>319943043</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r314264155-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>314264155</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r312856625-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>312856625</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t>ROACH HOTEL</t>
+  </si>
+  <si>
+    <t>One of our rooms was terrible, there were roaches all over and the water faucet was leaking.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r280159539-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>280159539</t>
+  </si>
+  <si>
+    <t>06/14/2015</t>
+  </si>
+  <si>
+    <t>Meh</t>
+  </si>
+  <si>
+    <t>Well this is an oil town so the prices are way too high. But what got me was when I called the front desk at 2am BC I needed a room for the night since I just got into town and the guy told me 52.00. I made him clarify that twice. I showed up in my work truck and he saw dollar signs and jacked the price up. I was too tired to argue though. Guess what Muhammad, I'm a top reviewer in the country, you better change your ways.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r274319626-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>274319626</t>
+  </si>
+  <si>
+    <t>05/24/2015</t>
+  </si>
+  <si>
+    <t>Peter Pierce and Peggy Henson</t>
+  </si>
+  <si>
+    <t>This is the 5th time we have stayed at this location. The first couple of times we had a decent stay. This LAST time was a disaster. There was Poop on the bathroom door jam and in the bed nearest the bathroom. The night desk clerk was DEAF. FOR REAL Deaf. I did not get my "points" AGAIN until I complained. SO, For THIS Reason I will NOT stay there again EVER. Further more, I am not satisfied with the way this point system works. There are hotels and motels that offer a better rewards system. Such as staying 2 nights and get the THIRD one F R E E. I am going to rethink my membership here. As of today, I STILL have NOT received a "Membership Card." I am a senior citizen and a Retired Armed Forces Veteran as is my Fiance Peggy Henson. We believe we deserve BETTER.  Thanks. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>This is the 5th time we have stayed at this location. The first couple of times we had a decent stay. This LAST time was a disaster. There was Poop on the bathroom door jam and in the bed nearest the bathroom. The night desk clerk was DEAF. FOR REAL Deaf. I did not get my "points" AGAIN until I complained. SO, For THIS Reason I will NOT stay there again EVER. Further more, I am not satisfied with the way this point system works. There are hotels and motels that offer a better rewards system. Such as staying 2 nights and get the THIRD one F R E E. I am going to rethink my membership here. As of today, I STILL have NOT received a "Membership Card." I am a senior citizen and a Retired Armed Forces Veteran as is my Fiance Peggy Henson. We believe we deserve BETTER.  Thanks. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r269102880-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>269102880</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>bedbugs</t>
+  </si>
+  <si>
+    <t>I have gotten 8 bites in room 219, The place looked nice but has bed bugs, I will never stay there again It was high priced for a super 8 and bed bugs on top of that it is a place i would avoid at all times. I have stayed at alot of motels and never have I been bitten like this.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r253384047-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>253384047</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>Standard Super 8</t>
+  </si>
+  <si>
+    <t>This hotel was another standard Super 8: The room was very clean, the bathroom as well.  There was a flat screen TV and a table and chairs and free WIFI.  The place was quiet, no hallway noise and the breakfast was Super 8 standard:  coffee, juice, waffles, cereal, bread, bagles, yogurt, fruit.  The price was reasonable so I wouldn't hesitate to stay here again.  Also a Taco Bell restaurant across the parking lot so we did not have to drive anywhere for dinner.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r250692858-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>250692858</t>
+  </si>
+  <si>
+    <t>01/23/2015</t>
+  </si>
+  <si>
+    <t>Good on the pocket book, not to good on sanity</t>
+  </si>
+  <si>
+    <t>This hotel was good on the pocketbook, not that expensive, but needed some major help.Stayed in room 201 and as the person before me had found out, I too had black mold in my toilet/shower area. Smelled like it, saw it, didn't like it. As well, the shower had absolutely no water pressure at all. It was literally a slow trickle of water out of the shower head no matter what setting I put it on. The shower floor was also extremely slimy. Alerted front desk staff that night and they didn't seem bothered by it at all. All I got as an "alright" in a tone like "what do you want me to do about it?". I don't know, perhaps acknowledge the issue and say "oh, sorry, we'll get that fixed right away". Granted it was 8 o'clock at night when it was brought to their attention, but they still could have said something better.The bed, however, was very comfy (love those pillowtops) and the TV had decent reception and an above average amount of channels. The Wifi was very lacking in speed (think back to 28.8k dialup).The public areas of the hotel are all outside and could use a good painting and scrubbing (cobwebs in a lot of corners and random stains on the concrete).MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was good on the pocketbook, not that expensive, but needed some major help.Stayed in room 201 and as the person before me had found out, I too had black mold in my toilet/shower area. Smelled like it, saw it, didn't like it. As well, the shower had absolutely no water pressure at all. It was literally a slow trickle of water out of the shower head no matter what setting I put it on. The shower floor was also extremely slimy. Alerted front desk staff that night and they didn't seem bothered by it at all. All I got as an "alright" in a tone like "what do you want me to do about it?". I don't know, perhaps acknowledge the issue and say "oh, sorry, we'll get that fixed right away". Granted it was 8 o'clock at night when it was brought to their attention, but they still could have said something better.The bed, however, was very comfy (love those pillowtops) and the TV had decent reception and an above average amount of channels. The Wifi was very lacking in speed (think back to 28.8k dialup).The public areas of the hotel are all outside and could use a good painting and scrubbing (cobwebs in a lot of corners and random stains on the concrete).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r249551227-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>249551227</t>
+  </si>
+  <si>
+    <t>01/16/2015</t>
+  </si>
+  <si>
+    <t>Not good.</t>
+  </si>
+  <si>
+    <t>I stay at many hotels for my employment and am on the road basically the whole year.  This hotel definitely could be a decent place to stay but there were a couple of flaws and one was absolutely unacceptable. The towels are bad, they would better suffice as floor mats or cleaning rags. The beds are hard which i actually prefer but just an FYI.  The worst thing was BLACK MOLD all over my bathroom ceiling. The room next door also had black mold on the shower curtain. I was in room 108. If these issues were addressed it wouldnt be too bad. Lot of work to do though....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r235400852-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>235400852</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>RUN FROM THIS MOTEL</t>
+  </si>
+  <si>
+    <t>This motel is misleading by any stretch of the imagination.  The internet photos does not capture or depict this disastrous motel.  After walking into the front lobby I discovered a grotesquely torn love seat, sofa, shamefully displayed, and the business chairs were also terribly ripped. There was zero customer service; we were not greeted by the front desk either verbally or with a smile, which was a male.  I later asked the female front desk clerk to assist with sending a fax &amp; she replied, "I've never sent a fax before, can you help me?"  The rooms are spacious, but the carpet is very dated (be careful walking without shoes).  The mattress is hard and terribly uncomfortable.  The guest towels should be thrown away or used for cleaning the floors; they feel like brillo pads.  My husband and I don't own a pet of any kind, but upon checkout the receipt had a miscellaneous charge of $2.00.  When we asked the front desk to explain the miscellaneous charge, he said it was a pet fee that really wasn't charged to the room.  After double checking the figures it was indeed charged to our room. He continued to look us dead in our faces &amp; denied the charges, although figures do not lie. We wrangled back &amp; forth about it, and finally he said, "I'll give you back the $2.00."  By then, I was upset about the overall experience because not...This motel is misleading by any stretch of the imagination.  The internet photos does not capture or depict this disastrous motel.  After walking into the front lobby I discovered a grotesquely torn love seat, sofa, shamefully displayed, and the business chairs were also terribly ripped. There was zero customer service; we were not greeted by the front desk either verbally or with a smile, which was a male.  I later asked the female front desk clerk to assist with sending a fax &amp; she replied, "I've never sent a fax before, can you help me?"  The rooms are spacious, but the carpet is very dated (be careful walking without shoes).  The mattress is hard and terribly uncomfortable.  The guest towels should be thrown away or used for cleaning the floors; they feel like brillo pads.  My husband and I don't own a pet of any kind, but upon checkout the receipt had a miscellaneous charge of $2.00.  When we asked the front desk to explain the miscellaneous charge, he said it was a pet fee that really wasn't charged to the room.  After double checking the figures it was indeed charged to our room. He continued to look us dead in our faces &amp; denied the charges, although figures do not lie. We wrangled back &amp; forth about it, and finally he said, "I'll give you back the $2.00."  By then, I was upset about the overall experience because not only did he charge us $2.00, he also overcharged us for the room.  Stay away from this hell motel; they are deceptive in their practices &amp; don't appreciate your business.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>This motel is misleading by any stretch of the imagination.  The internet photos does not capture or depict this disastrous motel.  After walking into the front lobby I discovered a grotesquely torn love seat, sofa, shamefully displayed, and the business chairs were also terribly ripped. There was zero customer service; we were not greeted by the front desk either verbally or with a smile, which was a male.  I later asked the female front desk clerk to assist with sending a fax &amp; she replied, "I've never sent a fax before, can you help me?"  The rooms are spacious, but the carpet is very dated (be careful walking without shoes).  The mattress is hard and terribly uncomfortable.  The guest towels should be thrown away or used for cleaning the floors; they feel like brillo pads.  My husband and I don't own a pet of any kind, but upon checkout the receipt had a miscellaneous charge of $2.00.  When we asked the front desk to explain the miscellaneous charge, he said it was a pet fee that really wasn't charged to the room.  After double checking the figures it was indeed charged to our room. He continued to look us dead in our faces &amp; denied the charges, although figures do not lie. We wrangled back &amp; forth about it, and finally he said, "I'll give you back the $2.00."  By then, I was upset about the overall experience because not...This motel is misleading by any stretch of the imagination.  The internet photos does not capture or depict this disastrous motel.  After walking into the front lobby I discovered a grotesquely torn love seat, sofa, shamefully displayed, and the business chairs were also terribly ripped. There was zero customer service; we were not greeted by the front desk either verbally or with a smile, which was a male.  I later asked the female front desk clerk to assist with sending a fax &amp; she replied, "I've never sent a fax before, can you help me?"  The rooms are spacious, but the carpet is very dated (be careful walking without shoes).  The mattress is hard and terribly uncomfortable.  The guest towels should be thrown away or used for cleaning the floors; they feel like brillo pads.  My husband and I don't own a pet of any kind, but upon checkout the receipt had a miscellaneous charge of $2.00.  When we asked the front desk to explain the miscellaneous charge, he said it was a pet fee that really wasn't charged to the room.  After double checking the figures it was indeed charged to our room. He continued to look us dead in our faces &amp; denied the charges, although figures do not lie. We wrangled back &amp; forth about it, and finally he said, "I'll give you back the $2.00."  By then, I was upset about the overall experience because not only did he charge us $2.00, he also overcharged us for the room.  Stay away from this hell motel; they are deceptive in their practices &amp; don't appreciate your business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r234686404-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>234686404</t>
+  </si>
+  <si>
+    <t>10/16/2014</t>
+  </si>
+  <si>
+    <t>This place acts like they care and they help you out if there is an issue but to only find another issue!</t>
+  </si>
+  <si>
+    <t>I arrived on a sunday and was staying till Thursday morning for work. Everything  was good with my room. To inform you this hotel is non smoking in every room! I go to work on monday and when I get off work I enter my room and it smelled like someone was smoking in my room.  I begin to think... well maybe it's just came in from someone outside cause the doors are not level in the door frame. So I dealt with it for a day and could not stand it anymore by the time  Tuesday came. I then noticed an ash tray in a non smoking room on my bathroom counter. The maid was smoking in my room!!!!! Are u freaking kidding me!? Who does that. I then get my room switched and the smell just kinda smells damp but it was better than smelling a damp ash tray. I then go to take a shower and I look up and the whole bathroom ceiling is covered in BLACK MOLD!!!!!!  This place looks nice and welcoming on the outside but the place is a dump and I wouldn't encourage anyone staying in a place like this.MoreShow less</t>
+  </si>
+  <si>
+    <t>I arrived on a sunday and was staying till Thursday morning for work. Everything  was good with my room. To inform you this hotel is non smoking in every room! I go to work on monday and when I get off work I enter my room and it smelled like someone was smoking in my room.  I begin to think... well maybe it's just came in from someone outside cause the doors are not level in the door frame. So I dealt with it for a day and could not stand it anymore by the time  Tuesday came. I then noticed an ash tray in a non smoking room on my bathroom counter. The maid was smoking in my room!!!!! Are u freaking kidding me!? Who does that. I then get my room switched and the smell just kinda smells damp but it was better than smelling a damp ash tray. I then go to take a shower and I look up and the whole bathroom ceiling is covered in BLACK MOLD!!!!!!  This place looks nice and welcoming on the outside but the place is a dump and I wouldn't encourage anyone staying in a place like this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r222088826-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>222088826</t>
+  </si>
+  <si>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>The worse hotel stay I've ever experienced.</t>
+  </si>
+  <si>
+    <t>I hate to admit that this was the worse hotel stay that I've ever experienced. We arrived very late and tried to save a few dollars so we stayed at the Super 8 instead of one of our normal hotel chains. We arrived very late and asked for a late check out. We were told that we could check out at 11:00 am. We arrived at the room only to find that it was stank and dank. It smelled as if it had been flooded.
+Because we were tired, we over looked it but eventually, after maybe 30 minutes we asked if we could move to another room. The gentleman came to the room with a new room key and advised that it smelled like it had just been cleaned. It definitely did not. We moved to another room about two doors down and it smelled bad also. The front door did not fit properly in the frame and light and air was seeping in. We put towles around the bottom of the door to make sure no critters or others would enter.
+The following morning is when we experienced the breakfast. The breakfast was so so. The waffle was good and that is the only good thing I can say about this entire stay. The apple juice came out of a machine and there wer particles floating in it. There was cereal and only one flavor of yogurt. If...I hate to admit that this was the worse hotel stay that I've ever experienced. We arrived very late and tried to save a few dollars so we stayed at the Super 8 instead of one of our normal hotel chains. We arrived very late and asked for a late check out. We were told that we could check out at 11:00 am. We arrived at the room only to find that it was stank and dank. It smelled as if it had been flooded.Because we were tired, we over looked it but eventually, after maybe 30 minutes we asked if we could move to another room. The gentleman came to the room with a new room key and advised that it smelled like it had just been cleaned. It definitely did not. We moved to another room about two doors down and it smelled bad also. The front door did not fit properly in the frame and light and air was seeping in. We put towles around the bottom of the door to make sure no critters or others would enter.The following morning is when we experienced the breakfast. The breakfast was so so. The waffle was good and that is the only good thing I can say about this entire stay. The apple juice came out of a machine and there wer particles floating in it. There was cereal and only one flavor of yogurt. If you don't like or are allergic to peaches then good luck. The rest of the breakfast was mediocre at best.Definitely not a breakfast I would advertise to get new customers. There was coffee and condiments in our room to make coffee but not coffee maker.  To make matters worse, at approximately 10:30 we receive a knock on the door (which...by the way...had a do not disturb sign on it). They stated that it was check out time. We advised them that we'd asked for a late check out only to be told that they knew that and check out time was in 30 minutes. That was the absolute last straw.I was starting to consider Wyndham brands but this was a total turn off for me. The positive reviews totally have me baffled. They are no where near what I actually experienced and wonder if those are reviews written by the company.The inside of the room around the bathroom was rusted and the tile was coming apart. I've never stayed anywhere like this before. This hotel reminded me of a pay by the hour sort of place. If you decide to stay, ple rase know you have been forwarned. I WOULD NOT ADVISE ANYONE TO STAY AT THIS SUPER 8...EVER. The second night, we stayed at Hyatt Place in Sugarland. That was spectacular and a wonderful, excellent choice. Feel free to read that review as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>I hate to admit that this was the worse hotel stay that I've ever experienced. We arrived very late and tried to save a few dollars so we stayed at the Super 8 instead of one of our normal hotel chains. We arrived very late and asked for a late check out. We were told that we could check out at 11:00 am. We arrived at the room only to find that it was stank and dank. It smelled as if it had been flooded.
+Because we were tired, we over looked it but eventually, after maybe 30 minutes we asked if we could move to another room. The gentleman came to the room with a new room key and advised that it smelled like it had just been cleaned. It definitely did not. We moved to another room about two doors down and it smelled bad also. The front door did not fit properly in the frame and light and air was seeping in. We put towles around the bottom of the door to make sure no critters or others would enter.
+The following morning is when we experienced the breakfast. The breakfast was so so. The waffle was good and that is the only good thing I can say about this entire stay. The apple juice came out of a machine and there wer particles floating in it. There was cereal and only one flavor of yogurt. If...I hate to admit that this was the worse hotel stay that I've ever experienced. We arrived very late and tried to save a few dollars so we stayed at the Super 8 instead of one of our normal hotel chains. We arrived very late and asked for a late check out. We were told that we could check out at 11:00 am. We arrived at the room only to find that it was stank and dank. It smelled as if it had been flooded.Because we were tired, we over looked it but eventually, after maybe 30 minutes we asked if we could move to another room. The gentleman came to the room with a new room key and advised that it smelled like it had just been cleaned. It definitely did not. We moved to another room about two doors down and it smelled bad also. The front door did not fit properly in the frame and light and air was seeping in. We put towles around the bottom of the door to make sure no critters or others would enter.The following morning is when we experienced the breakfast. The breakfast was so so. The waffle was good and that is the only good thing I can say about this entire stay. The apple juice came out of a machine and there wer particles floating in it. There was cereal and only one flavor of yogurt. If you don't like or are allergic to peaches then good luck. The rest of the breakfast was mediocre at best.Definitely not a breakfast I would advertise to get new customers. There was coffee and condiments in our room to make coffee but not coffee maker.  To make matters worse, at approximately 10:30 we receive a knock on the door (which...by the way...had a do not disturb sign on it). They stated that it was check out time. We advised them that we'd asked for a late check out only to be told that they knew that and check out time was in 30 minutes. That was the absolute last straw.I was starting to consider Wyndham brands but this was a total turn off for me. The positive reviews totally have me baffled. They are no where near what I actually experienced and wonder if those are reviews written by the company.The inside of the room around the bathroom was rusted and the tile was coming apart. I've never stayed anywhere like this before. This hotel reminded me of a pay by the hour sort of place. If you decide to stay, ple rase know you have been forwarned. I WOULD NOT ADVISE ANYONE TO STAY AT THIS SUPER 8...EVER. The second night, we stayed at Hyatt Place in Sugarland. That was spectacular and a wonderful, excellent choice. Feel free to read that review as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r196058213-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>196058213</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>Affordable, Safe, Clean</t>
+  </si>
+  <si>
+    <t>One night stay while traveling with others to south Texas.  This was second stay in this property, with the previous stay one year ago.  Location is easy to get to, and from other reviews the area seems to be one of the safer locations in the Houston area.  This has proven to be accurate in my experience.  Room was a king bed.  Nothing fancy, but clean and equipped/supplied as expected and needed.  Reservation was made via the Super 8 website and there was some confusion about payment type as documented from website but the local staff was helpful and I believe this is an issue that Super 8 should work to resolve with their property owners.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>One night stay while traveling with others to south Texas.  This was second stay in this property, with the previous stay one year ago.  Location is easy to get to, and from other reviews the area seems to be one of the safer locations in the Houston area.  This has proven to be accurate in my experience.  Room was a king bed.  Nothing fancy, but clean and equipped/supplied as expected and needed.  Reservation was made via the Super 8 website and there was some confusion about payment type as documented from website but the local staff was helpful and I believe this is an issue that Super 8 should work to resolve with their property owners.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r191638449-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>191638449</t>
+  </si>
+  <si>
+    <t>01/21/2014</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r187213841-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>187213841</t>
+  </si>
+  <si>
+    <t>12/09/2013</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Hotel was clean and staff was very friendly, nice beds. Did not use any facilities. Breakfast could have been a little better not to much variety. We called and made a reservation and it was very close to our event which was at the county fair grounds.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r179836080-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>179836080</t>
+  </si>
+  <si>
+    <t>10/05/2013</t>
+  </si>
+  <si>
+    <t>Let's party!</t>
+  </si>
+  <si>
+    <t>If having an all-night party, making lots of noise and stomping around, and setting off your car alarm @ 3 am is what you are looking for then check on in ... otherwise if you are seeking a good night's sleep while traveling then the sure thing is to keep on driving! Even the manager explained "we have no quiet rooms". Room was nice ... just bad luck getting rowdy neighbors with no control by the hotel. We've been traveling for over 25 years and this is our first negative review.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r164486162-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>164486162</t>
+  </si>
+  <si>
+    <t>06/19/2013</t>
+  </si>
+  <si>
+    <t>Great for the price</t>
+  </si>
+  <si>
+    <t>This place is super clean and the staff is very nice.  I have stayed at this hotel an extended period of time and the staff was very accommadating to my needs.  I will definety stay there again when I am in the area and recommend to others.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r161933932-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>161933932</t>
+  </si>
+  <si>
+    <t>05/26/2013</t>
+  </si>
+  <si>
+    <t>Very Nice and Clean</t>
+  </si>
+  <si>
+    <t>While passing through from Florida to the Rio Grande, we were tired and pulled in at this Super 8 in Rosenberg.  What a nice surprise.  Clean room, nice bed and bathroom.  Pet friendly for $10.  Its not easy finding a nice clean hotel that accepts pets.  This was a wonderful surprise.  You won't be disappointed</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r151903429-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>151903429</t>
+  </si>
+  <si>
+    <t>02/11/2013</t>
+  </si>
+  <si>
+    <t>Rest stop</t>
+  </si>
+  <si>
+    <t>My husband and i were on our way to Galveston, TX but we wanted to do a rest stop and we choose Rosenberg, this place was great. Really good breakfast (not enought seats or tables) be sure to be early. Access to main street was close and we did some shopping while there since shopping plaza was a few miles downs and great restaurants near by. I recommend this stay.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r148857087-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>148857087</t>
+  </si>
+  <si>
+    <t>01/04/2013</t>
+  </si>
+  <si>
+    <t>Nice location</t>
+  </si>
+  <si>
+    <t>Good location, nice neat rooms, clean bathrooms, almost all rooms were full, but the room was quiet, and the nite's sleep was great. The staff was very helpful , and breakfast was great, more than  I could eat.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r147021056-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>147021056</t>
+  </si>
+  <si>
+    <t>12/08/2012</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>The room and the rate was both excellent.  It was very close to a family event we had to attend.  We would consider staying here again on the next trip to Houston.  Also, we found it to be very neat and clean.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r64604520-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>64604520</t>
+  </si>
+  <si>
+    <t>05/18/2010</t>
+  </si>
+  <si>
+    <t>A comfortable place to stay</t>
+  </si>
+  <si>
+    <t>After flying into Houston Rosenberg was a convenient place to stop for the night.  The Super 8 was just fine -- fairly big shower, comfortable bed, A/C that worked.  Don't know if there is any more imaginative dining nearby, but the Taco Bell certainly is next door.  A lot of traffic on the highway, but I didn't hear a thing with the A/C running.  Breakfast was basic fare.  I wouldn't hesitate to recommend this place to anyone else.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r48193059-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>48193059</t>
+  </si>
+  <si>
+    <t>10/31/2009</t>
+  </si>
+  <si>
+    <t>Super Clean.Quiet,Great Comfort and value!</t>
+  </si>
+  <si>
+    <t>I stay here when i was on my way to Houston. The rooms are super clean. The rooms are also very quiet . I stayed in lots of places where I couldn't sleep a wink. The rooms have everything you need -micro/fridge/iron/internet/dryer/tv.The hotel staff is so friendly.I recommend you this motel.I would like to stay here whenever I am on that way.</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r47929225-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>47929225</t>
+  </si>
+  <si>
+    <t>10/27/2009</t>
+  </si>
+  <si>
+    <t>Best Brand New Hotel in Rosenberg</t>
+  </si>
+  <si>
+    <t>I recommend this hotel over other hotels in town. I stay in Rosenberg every other weekend. I like the spacious room with Micro Freez, Hairdryer, Very Fast WiFi none of the other hotels have it. Staff is very friendly. The bed are very nice, I felt sleep in ten minute, very comfortable. TacoBell is also right next door. I will stay again at this location.</t>
+  </si>
+  <si>
+    <t>September 2009</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1544,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1576,3605 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>127</v>
+      </c>
+      <c r="X13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>136</v>
+      </c>
+      <c r="X15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>136</v>
+      </c>
+      <c r="X16" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>147</v>
+      </c>
+      <c r="X17" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>154</v>
+      </c>
+      <c r="X18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>154</v>
+      </c>
+      <c r="X19" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>169</v>
+      </c>
+      <c r="X20" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>177</v>
+      </c>
+      <c r="X21" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>177</v>
+      </c>
+      <c r="X22" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L23" t="s">
+        <v>190</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>191</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>192</v>
+      </c>
+      <c r="X23" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>198</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>177</v>
+      </c>
+      <c r="X24" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" t="s">
+        <v>202</v>
+      </c>
+      <c r="L25" t="s">
+        <v>203</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>177</v>
+      </c>
+      <c r="X25" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>210</v>
+      </c>
+      <c r="O26" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>212</v>
+      </c>
+      <c r="J27" t="s">
+        <v>213</v>
+      </c>
+      <c r="K27" t="s">
+        <v>214</v>
+      </c>
+      <c r="L27" t="s">
+        <v>215</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>210</v>
+      </c>
+      <c r="O27" t="s">
+        <v>68</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>217</v>
+      </c>
+      <c r="J28" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>221</v>
+      </c>
+      <c r="O28" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>227</v>
+      </c>
+      <c r="O29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" t="s">
+        <v>230</v>
+      </c>
+      <c r="K30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>233</v>
+      </c>
+      <c r="O30" t="s">
+        <v>68</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>234</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" t="s">
+        <v>236</v>
+      </c>
+      <c r="K31" t="s">
+        <v>237</v>
+      </c>
+      <c r="L31" t="s">
+        <v>238</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>233</v>
+      </c>
+      <c r="O31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>239</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>240</v>
+      </c>
+      <c r="J32" t="s">
+        <v>241</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>161</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>242</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>243</v>
+      </c>
+      <c r="J33" t="s">
+        <v>244</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>245</v>
+      </c>
+      <c r="O33" t="s">
+        <v>68</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>247</v>
+      </c>
+      <c r="J34" t="s">
+        <v>248</v>
+      </c>
+      <c r="K34" t="s">
+        <v>249</v>
+      </c>
+      <c r="L34" t="s">
+        <v>250</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>245</v>
+      </c>
+      <c r="O34" t="s">
+        <v>111</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>251</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>252</v>
+      </c>
+      <c r="J35" t="s">
+        <v>253</v>
+      </c>
+      <c r="K35" t="s">
+        <v>254</v>
+      </c>
+      <c r="L35" t="s">
+        <v>255</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>256</v>
+      </c>
+      <c r="O35" t="s">
+        <v>111</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>257</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>258</v>
+      </c>
+      <c r="J36" t="s">
+        <v>259</v>
+      </c>
+      <c r="K36" t="s">
+        <v>260</v>
+      </c>
+      <c r="L36" t="s">
+        <v>261</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>262</v>
+      </c>
+      <c r="O36" t="s">
+        <v>68</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>264</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>265</v>
+      </c>
+      <c r="J37" t="s">
+        <v>266</v>
+      </c>
+      <c r="K37" t="s">
+        <v>267</v>
+      </c>
+      <c r="L37" t="s">
+        <v>268</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>269</v>
+      </c>
+      <c r="O37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>270</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>271</v>
+      </c>
+      <c r="J38" t="s">
+        <v>272</v>
+      </c>
+      <c r="K38" t="s">
+        <v>273</v>
+      </c>
+      <c r="L38" t="s">
+        <v>274</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>275</v>
+      </c>
+      <c r="O38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>277</v>
+      </c>
+      <c r="J39" t="s">
+        <v>278</v>
+      </c>
+      <c r="K39" t="s">
+        <v>279</v>
+      </c>
+      <c r="L39" t="s">
+        <v>280</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>275</v>
+      </c>
+      <c r="O39" t="s">
+        <v>68</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>282</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>283</v>
+      </c>
+      <c r="J40" t="s">
+        <v>284</v>
+      </c>
+      <c r="K40" t="s">
+        <v>285</v>
+      </c>
+      <c r="L40" t="s">
+        <v>286</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>275</v>
+      </c>
+      <c r="O40" t="s">
+        <v>68</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>287</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>288</v>
+      </c>
+      <c r="J41" t="s">
+        <v>289</v>
+      </c>
+      <c r="K41" t="s">
+        <v>290</v>
+      </c>
+      <c r="L41" t="s">
+        <v>291</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>292</v>
+      </c>
+      <c r="O41" t="s">
+        <v>68</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>294</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>295</v>
+      </c>
+      <c r="J42" t="s">
+        <v>296</v>
+      </c>
+      <c r="K42" t="s">
+        <v>297</v>
+      </c>
+      <c r="L42" t="s">
+        <v>298</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>300</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>301</v>
+      </c>
+      <c r="J43" t="s">
+        <v>302</v>
+      </c>
+      <c r="K43" t="s">
+        <v>303</v>
+      </c>
+      <c r="L43" t="s">
+        <v>304</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>305</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>307</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>308</v>
+      </c>
+      <c r="J44" t="s">
+        <v>309</v>
+      </c>
+      <c r="K44" t="s">
+        <v>310</v>
+      </c>
+      <c r="L44" t="s">
+        <v>311</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>312</v>
+      </c>
+      <c r="O44" t="s">
+        <v>111</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>314</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>315</v>
+      </c>
+      <c r="J45" t="s">
+        <v>316</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>317</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>318</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>319</v>
+      </c>
+      <c r="J46" t="s">
+        <v>320</v>
+      </c>
+      <c r="K46" t="s">
+        <v>321</v>
+      </c>
+      <c r="L46" t="s">
+        <v>322</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>317</v>
+      </c>
+      <c r="O46" t="s">
+        <v>61</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>323</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>324</v>
+      </c>
+      <c r="J47" t="s">
+        <v>325</v>
+      </c>
+      <c r="K47" t="s">
+        <v>326</v>
+      </c>
+      <c r="L47" t="s">
+        <v>327</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>328</v>
+      </c>
+      <c r="O47" t="s">
+        <v>68</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>329</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>330</v>
+      </c>
+      <c r="J48" t="s">
+        <v>331</v>
+      </c>
+      <c r="K48" t="s">
+        <v>332</v>
+      </c>
+      <c r="L48" t="s">
+        <v>333</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>334</v>
+      </c>
+      <c r="O48" t="s">
+        <v>99</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>335</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>336</v>
+      </c>
+      <c r="J49" t="s">
+        <v>337</v>
+      </c>
+      <c r="K49" t="s">
+        <v>338</v>
+      </c>
+      <c r="L49" t="s">
+        <v>339</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>340</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>341</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>342</v>
+      </c>
+      <c r="J50" t="s">
+        <v>343</v>
+      </c>
+      <c r="K50" t="s">
+        <v>344</v>
+      </c>
+      <c r="L50" t="s">
+        <v>345</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>346</v>
+      </c>
+      <c r="O50" t="s">
+        <v>61</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>347</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>348</v>
+      </c>
+      <c r="J51" t="s">
+        <v>349</v>
+      </c>
+      <c r="K51" t="s">
+        <v>350</v>
+      </c>
+      <c r="L51" t="s">
+        <v>351</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>352</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>353</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>354</v>
+      </c>
+      <c r="J52" t="s">
+        <v>355</v>
+      </c>
+      <c r="K52" t="s">
+        <v>356</v>
+      </c>
+      <c r="L52" t="s">
+        <v>357</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>358</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>359</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>360</v>
+      </c>
+      <c r="J53" t="s">
+        <v>361</v>
+      </c>
+      <c r="K53" t="s">
+        <v>362</v>
+      </c>
+      <c r="L53" t="s">
+        <v>363</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>364</v>
+      </c>
+      <c r="O53" t="s">
+        <v>111</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>365</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>366</v>
+      </c>
+      <c r="J54" t="s">
+        <v>367</v>
+      </c>
+      <c r="K54" t="s">
+        <v>368</v>
+      </c>
+      <c r="L54" t="s">
+        <v>369</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>370</v>
+      </c>
+      <c r="O54" t="s">
+        <v>68</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>371</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>372</v>
+      </c>
+      <c r="J55" t="s">
+        <v>373</v>
+      </c>
+      <c r="K55" t="s">
+        <v>374</v>
+      </c>
+      <c r="L55" t="s">
+        <v>375</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>376</v>
+      </c>
+      <c r="O55" t="s">
+        <v>68</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_641.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_641.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="568">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r596523161-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>56577</t>
+  </si>
+  <si>
+    <t>1556883</t>
+  </si>
+  <si>
+    <t>596523161</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A terrific stay </t>
+  </si>
+  <si>
+    <t>I really liked this hotel. I stayed for 3 nights and was always treated well by the friendly and professional staff. The room was clean, towels always replaced, fridge and microwave was handy. Just a heads up, there are two floors but no elevator, and it is a motel where the doors face the outside. Didn’t cause any issues of course, just a heads up. Great water pressure in the shower, loved the walk in. Great location, close to all sorts of restaurants and a quick drive to historic downtown. Just off the freeway but no associated noise. I’ll definitely return. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Alex K, Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded July 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2018</t>
+  </si>
+  <si>
+    <t>I really liked this hotel. I stayed for 3 nights and was always treated well by the friendly and professional staff. The room was clean, towels always replaced, fridge and microwave was handy. Just a heads up, there are two floors but no elevator, and it is a motel where the doors face the outside. Didn’t cause any issues of course, just a heads up. Great water pressure in the shower, loved the walk in. Great location, close to all sorts of restaurants and a quick drive to historic downtown. Just off the freeway but no associated noise. I’ll definitely return. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r584142043-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>584142043</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>A great stay</t>
+  </si>
+  <si>
+    <t>We stay here each time we have to go to Houston for appointments, The room are clean the beds are soft and  service s great . We will stay there again in July 0f 2018. Easy drive to Houston. Never had any problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Alex K, Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded June 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2018</t>
+  </si>
+  <si>
+    <t>We stay here each time we have to go to Houston for appointments, The room are clean the beds are soft and  service s great . We will stay there again in July 0f 2018. Easy drive to Houston. Never had any problems.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r585171128-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
   </si>
   <si>
-    <t>56577</t>
-  </si>
-  <si>
-    <t>1556883</t>
-  </si>
-  <si>
     <t>585171128</t>
   </si>
   <si>
@@ -174,18 +234,9 @@
     <t>I recommend the hotel, the rooms are  clean and the bed is comfortable good a/c we staid for tree nights, there's a restaurant around the hotel nice hospitality. the front desk people they were friendly people.MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Alex K, Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded June 22, 2018</t>
-  </si>
-  <si>
-    <t>Responded June 22, 2018</t>
-  </si>
-  <si>
     <t>I recommend the hotel, the rooms are  clean and the bed is comfortable good a/c we staid for tree nights, there's a restaurant around the hotel nice hospitality. the front desk people they were friendly people.More</t>
   </si>
   <si>
@@ -198,12 +249,15 @@
     <t>03/15/2018</t>
   </si>
   <si>
+    <t>Great location and service out experience was awesome we...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location and service out experience was awesome we we're overwhelmed with the service and very friendly employees </t>
+  </si>
+  <si>
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r558280977-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -222,9 +276,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Alex K, Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded February 22, 2018</t>
   </si>
   <si>
@@ -234,6 +285,33 @@
     <t>Had a great stay every thing was great ,clean,up to date.loved the rooms and they smelled great also nice size bath rooms and great bed to sleep in. ThanksMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r557565875-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>557565875</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We got in really late. Once the desk clerk showed up, it was a fairly quick check-in. The bed was very comfortable. The outside of the hotel had me a little wary at first, but the room was great. The breakfast selection wasn’t very large, but they had a waffle maker. That’s all I really care about. Overall, it was a good stay, and I would stay again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r547269746-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>547269746</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r532742645-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -297,6 +375,36 @@
     <t>More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r528444155-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>528444155</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Alex K, Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded October 6, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r521129692-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>521129692</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Alex K, Guest Relations Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded October 6, 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r511055158-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -312,12 +420,6 @@
     <t>PROS: Very clean, relatively quiet property (visibly cleaner than other local properties), NO potholed parking lot. Located US 59/I-69 at (major) TX Hwy 36 exit, w/ fast food, gas stations at walking distance.  Am Wynham Rewards member, used pts for final price--$30 LESS! than similar lodging in nearby Sugar Land (SL), Stafford. R'berg nr SL, where grew up, came from Wash, DC area back to Texas to 40-yr Dulles HS reunion; I wanted to save trip money. SL. Stafford, Katy populations has crazily skyrocketed! (10,000 in 1980 to 100,000 now). Also, their hotel/motel prices shot up--much higher than Rosenberg, Yet, some in SL, Stafford, HOU lack nice staffs, not clean, are noisier than R'berg. If traveler to Houston doesn't mind driving 30 miles out to save $$$, or going Victoria, Corpus, Rio Grande Valley, Laredo, Republic of Mexico and need a good rest before driving 2-6 hours, this Rosenberg Super 8 a nice stop for lower price! CONS: Slow Internet; Soda Machine not working; No upstairs elevator for handicapped;  a few blue-collar patrons leave nasty boots outside room for periods without moving them, but..that's Texas!MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Alex K, Public Relations Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded October 6, 2017</t>
   </si>
   <si>
@@ -354,6 +456,39 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r497017092-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>497017092</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Could not sleep on bed</t>
+  </si>
+  <si>
+    <t>The bed had white stains on blankets,cigarette burns in covers,and dirty towels in restroom. The floors were not vacuumed. I slept in the office chair due to no vacancy's. I was given a 20 percent discount instead of my money back.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r493031079-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>493031079</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>Rooms could use some cheer</t>
+  </si>
+  <si>
+    <t>Room clean but could use some cosmetic upgrading. A little stark and dreary looking. Clean and operational but dated.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r490732471-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -405,6 +540,48 @@
     <t>Responded May 15, 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r476113123-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>476113123</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>Nice new motel with large rooms</t>
+  </si>
+  <si>
+    <t>This Super 8 is at a great location right by Highway 59. The rooms are large and spacious with a well lit bathroom that was clean and, dare I say, inviting. The front office staff was friendly and informative. I really enjoyed my stay and will plan on staying here again. My only issue was with the room being so large it seemed to never really cool off enough. MoreShow less</t>
+  </si>
+  <si>
+    <t>super8rosenebrg, Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>This Super 8 is at a great location right by Highway 59. The rooms are large and spacious with a well lit bathroom that was clean and, dare I say, inviting. The front office staff was friendly and informative. I really enjoyed my stay and will plan on staying here again. My only issue was with the room being so large it seemed to never really cool off enough. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r472919913-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>472919913</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Rosey Thoughts of Rosenberg, TX</t>
+  </si>
+  <si>
+    <t>What a special time we had in Rosenberg.  Our room was an upgrade to the Executive Room above the Entrance and Desk.  Spacious, clean, quiet, and comfortable.  Staff were very pleasant.  The Breakfast was complete...more than anyone could eat.  We didn't even move the car and had our evening meal at Taco Bell next door.  A very nice stay.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r470147168-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -414,9 +591,6 @@
     <t>03/25/2017</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r467286423-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -441,6 +615,39 @@
     <t>03/13/2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r459034410-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>459034410</t>
+  </si>
+  <si>
+    <t>02/12/2017</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>super8rosenebrg, Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded February 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r459026993-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>459026993</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Only problem I guess was phone had loose cord in phone and requested it b e replaced and still waitingMoreShow less</t>
+  </si>
+  <si>
+    <t>Only problem I guess was phone had loose cord in phone and requested it b e replaced and still waitingMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r432975023-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -507,6 +714,33 @@
     <t>We had a wonderful stay here. The place is newer and well maintained. The staff was very nice. This is located near many local attractions. I highly recommend this place. I think it would make for a nuce business stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r420795129-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>420795129</t>
+  </si>
+  <si>
+    <t>super8rosenebrg, General Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded October 6, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r420308392-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>420308392</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>Clean and convenient</t>
+  </si>
+  <si>
+    <t>This hotel was conveniently located just outside of Houston, the room was clean, and the staff was very friendly.  Of course since this wasnt a romantic excursion but a girls trip, safe location  and price were the primary considerations.   So it was perfect for our purpose. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was conveniently located just outside of Houston, the room was clean, and the staff was very friendly.  Of course since this wasnt a romantic excursion but a girls trip, safe location  and price were the primary considerations.   So it was perfect for our purpose. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r415855357-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -576,6 +810,51 @@
     <t>Very nice property in a very convenient location , close to the fort bend fairgrounds.. Rooms are clean, comfortable with all amenities.. Breakfast  has several choices including waffles, and eating area is bright and spacious..  Owners are really nice people and very helpful.. I have stayed here several times and will continue to do so..More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r390882863-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>390882863</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>The Hotel is very conveniently located. The hotel is clean, has a luxuriouslobby. The room was nice, The bathroom was clean and spacious. The rooms are air conditioned and have free wifi. Breakfast selection is good. The staff were nice. Would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>super8rosenebrg, Front Office Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded September 7, 2016</t>
+  </si>
+  <si>
+    <t>The Hotel is very conveniently located. The hotel is clean, has a luxuriouslobby. The room was nice, The bathroom was clean and spacious. The rooms are air conditioned and have free wifi. Breakfast selection is good. The staff were nice. Would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r390520372-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>390520372</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>The manager was very friendly. Motel is located next to the highway, overall it is clean and seems to be recently renovated. Overall did not notice any security issues, a lot places to eat nearby. Would recommendMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>The manager was very friendly. Motel is located next to the highway, overall it is clean and seems to be recently renovated. Overall did not notice any security issues, a lot places to eat nearby. Would recommendMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r389499030-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -591,9 +870,6 @@
     <t>I went to check in and try 5 different rooms and all of them were super dirty. one have sheets that smelled like someone urinate on them, another had condoms in the room, another one had a whole in the middle of the bed,. I was not sastified because I was traveling with my two young children and it was just simply nasty.  I told the front desk agent to tell the manager to call me, and when he did call me the next day, he had no answer nor excuses for all dirty rooms. disgusting!!!MoreShow less</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t>Management R, Front Office Manager at Super 8 by Wyndham Rosenberg TX, responded to this reviewResponded July 7, 2016</t>
   </si>
   <si>
@@ -633,6 +909,27 @@
     <t>There is nothing special about this place, you can probably survive spending a night there but don't count on anything special to make your stay a pleasant one. It's one of those places that cut the costs in all possible ways. Too few towels for the number of guests. Housekeeping could be better : Check the fridge of items left there by previous guests, for example. And that printout with hotel information : torn, with coffee stains.Somehow, I don't feel welcome in a place like this.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r359867358-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>359867358</t>
+  </si>
+  <si>
+    <t>03/29/2016</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r359025843-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>359025843</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r356777095-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -648,9 +945,6 @@
     <t>Stayed at this location as an over night while traveling. In expensive, clean and at a good location. Several places to eat, chains and local places, close to the hotel. Free breakfast at hotel is sparse, but the coffee is pretty good.</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r354906954-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -684,6 +978,36 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r340167354-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>340167354</t>
+  </si>
+  <si>
+    <t>01/15/2016</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r334436087-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>334436087</t>
+  </si>
+  <si>
+    <t>12/22/2015</t>
+  </si>
+  <si>
+    <t>Hardest Mattresses ever</t>
+  </si>
+  <si>
+    <t>These beds were by far the most uncomfortable I have ever experienced. There was also very little water pressure in the shower, with very hard water. The room was clean though.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r334050076-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -699,9 +1023,6 @@
     <t>It's great place to stay,you got lots of restaurants all arround...good customer service...cc forbes company..</t>
   </si>
   <si>
-    <t>December 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r329105209-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -735,6 +1056,30 @@
     <t>Older furnishing and carpeting but clean. Very nice staff. Spent my first 4 days here, while working in the area. Spent my next 4 days at a fancier and more costly hotel in the area, where I was bitten by fleas. Came back to the Rosenberg Super 8 for my final 3 weeks in the area. I really enjoyed the place and staff. Some people can stay here and say "they didn't like it," but you can go to a more expensive hotel, and not like it also. This facility was worth the money I spent.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r327183746-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>327183746</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Always Great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our stay here has always been great. Rooms are very clean. Front Desk very helpful and friendly. Close to everything. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r324742019-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>324742019</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r319943043-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -771,6 +1116,33 @@
     <t>One of our rooms was terrible, there were roaches all over and the water faucet was leaking.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r307337818-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>307337818</t>
+  </si>
+  <si>
+    <t>09/05/2015</t>
+  </si>
+  <si>
+    <t>Awesome to stay !</t>
+  </si>
+  <si>
+    <t>I was really happy with my stay at this motel on August 2nd 2015.Good hospitality.Quick response from front desk.Room is clean.No noise.Breakfast is very hygienic.I prefer on priority to stay again at this place.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r305322761-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>305322761</t>
+  </si>
+  <si>
+    <t>08/31/2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r280159539-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -828,15 +1200,51 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r253787273-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>253787273</t>
+  </si>
+  <si>
+    <t>02/12/2015</t>
+  </si>
+  <si>
+    <t>Bedbugs</t>
+  </si>
+  <si>
+    <t>Was getting eaten alive by bedbugs in room 109. When I went to front desk to check out and go to another hotel. Told he didn't know how. Moved to room 103. Still had bed bugs. Ended staying up all night. Do not stay here!!!!!!</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r253409198-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>253409198</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>Awesome staff and great room</t>
+  </si>
+  <si>
+    <t>I'd been traveling around the country and had just driven all day across the south states in heavy rains (early May 2014) then hit Houston's rush hour traffic (my first time - wow!), survived that, and needed an affordable place close to the highway to rest for the night before another long day on the road. I needed to replace my broken iPad cord and to eat a good home-cooked meal, so I took a chance and asked the gentleman manning the desk. He gave me easy directions to where I could get a cord and told me of an incredible family-run Mexican place close by. I was back in my room resting and eating a fantastic Mother's Day meal within an hour.  The room was delightful and clean, the bed super comfortable, the shower was powerful.  Even though the hotel is in a busy area, I felt safe and the room was quiet.  The best, to me, was how friendly and helpful the evening staff guy was.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I'd been traveling around the country and had just driven all day across the south states in heavy rains (early May 2014) then hit Houston's rush hour traffic (my first time - wow!), survived that, and needed an affordable place close to the highway to rest for the night before another long day on the road. I needed to replace my broken iPad cord and to eat a good home-cooked meal, so I took a chance and asked the gentleman manning the desk. He gave me easy directions to where I could get a cord and told me of an incredible family-run Mexican place close by. I was back in my room resting and eating a fantastic Mother's Day meal within an hour.  The room was delightful and clean, the bed super comfortable, the shower was powerful.  Even though the hotel is in a busy area, I felt safe and the room was quiet.  The best, to me, was how friendly and helpful the evening staff guy was.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r253384047-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
   </si>
   <si>
     <t>253384047</t>
   </si>
   <si>
-    <t>02/09/2015</t>
-  </si>
-  <si>
     <t>Standard Super 8</t>
   </si>
   <si>
@@ -877,6 +1285,39 @@
   </si>
   <si>
     <t>I stay at many hotels for my employment and am on the road basically the whole year.  This hotel definitely could be a decent place to stay but there were a couple of flaws and one was absolutely unacceptable. The towels are bad, they would better suffice as floor mats or cleaning rags. The beds are hard which i actually prefer but just an FYI.  The worst thing was BLACK MOLD all over my bathroom ceiling. The room next door also had black mold on the shower curtain. I was in room 108. If these issues were addressed it wouldnt be too bad. Lot of work to do though....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r240559824-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>240559824</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent &amp; pocket friendly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed at Super 8 for one week and well, the rooms exceeded well above our expectations. The rooms are accommodated with flatscreen televisions, dinning table and chairs, ironing boards, and obviously a restroom with shower. We were all very surprised by how clean the whole hotel was. Very pleased.    </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r239310728-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>239310728</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>Decent for the price</t>
+  </si>
+  <si>
+    <t>I only stayed here one night came in late just needed a place to sleep so did not want to spend a lot on a really nice hotel called said they had a room got there gave me a discount even room was clean was a good size comfortable so if you're passing through and need a nice place to stay this is the place for you staff was courteous and pleasant</t>
+  </si>
+  <si>
+    <t>November 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r235400852-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
@@ -943,6 +1384,36 @@
 The following morning is when we experienced the breakfast. The breakfast was so so. The waffle was good and that is the only good thing I can say about this entire stay. The apple juice came out of a machine and there wer particles floating in it. There was cereal and only one flavor of yogurt. If...I hate to admit that this was the worse hotel stay that I've ever experienced. We arrived very late and tried to save a few dollars so we stayed at the Super 8 instead of one of our normal hotel chains. We arrived very late and asked for a late check out. We were told that we could check out at 11:00 am. We arrived at the room only to find that it was stank and dank. It smelled as if it had been flooded.Because we were tired, we over looked it but eventually, after maybe 30 minutes we asked if we could move to another room. The gentleman came to the room with a new room key and advised that it smelled like it had just been cleaned. It definitely did not. We moved to another room about two doors down and it smelled bad also. The front door did not fit properly in the frame and light and air was seeping in. We put towles around the bottom of the door to make sure no critters or others would enter.The following morning is when we experienced the breakfast. The breakfast was so so. The waffle was good and that is the only good thing I can say about this entire stay. The apple juice came out of a machine and there wer particles floating in it. There was cereal and only one flavor of yogurt. If you don't like or are allergic to peaches then good luck. The rest of the breakfast was mediocre at best.Definitely not a breakfast I would advertise to get new customers. There was coffee and condiments in our room to make coffee but not coffee maker.  To make matters worse, at approximately 10:30 we receive a knock on the door (which...by the way...had a do not disturb sign on it). They stated that it was check out time. We advised them that we'd asked for a late check out only to be told that they knew that and check out time was in 30 minutes. That was the absolute last straw.I was starting to consider Wyndham brands but this was a total turn off for me. The positive reviews totally have me baffled. They are no where near what I actually experienced and wonder if those are reviews written by the company.The inside of the room around the bathroom was rusted and the tile was coming apart. I've never stayed anywhere like this before. This hotel reminded me of a pay by the hour sort of place. If you decide to stay, ple rase know you have been forwarned. I WOULD NOT ADVISE ANYONE TO STAY AT THIS SUPER 8...EVER. The second night, we stayed at Hyatt Place in Sugarland. That was spectacular and a wonderful, excellent choice. Feel free to read that review as well.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r221345148-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>221345148</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Recommended for an affordable, clean, quiet stay</t>
+  </si>
+  <si>
+    <t>Great place to stay.  It was quiet because it was located in Rosenberg so it is away from Houston but still close enough if you need to drive in for something. The room was nice looking and clean. They have free Wi-Fi. My stay also included a free breakfast which included fresh waffles, cereal, cinnamon rolls, juice etc. So, I didn't have to worry about breakfast before taking off to work. The staff was friendly. The price was great anything further into the city (Sugarland, Houston) would have been more expensive and definitely not as nice or clean.My only complaint was that the ice machine was broken and it was the middle of summer when it is still 90 at 8pm. Any hotel in Texas should know not to let the machine stay down or to have more than one machine.Overall my stay was great. I highly recommend the Super 8 in Rosenberg.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great place to stay.  It was quiet because it was located in Rosenberg so it is away from Houston but still close enough if you need to drive in for something. The room was nice looking and clean. They have free Wi-Fi. My stay also included a free breakfast which included fresh waffles, cereal, cinnamon rolls, juice etc. So, I didn't have to worry about breakfast before taking off to work. The staff was friendly. The price was great anything further into the city (Sugarland, Houston) would have been more expensive and definitely not as nice or clean.My only complaint was that the ice machine was broken and it was the middle of summer when it is still 90 at 8pm. Any hotel in Texas should know not to let the machine stay down or to have more than one machine.Overall my stay was great. I highly recommend the Super 8 in Rosenberg.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r219221856-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>219221856</t>
+  </si>
+  <si>
+    <t>08/03/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r196058213-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -991,6 +1462,39 @@
     <t>Hotel was clean and staff was very friendly, nice beds. Did not use any facilities. Breakfast could have been a little better not to much variety. We called and made a reservation and it was very close to our event which was at the county fair grounds.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r186471446-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>186471446</t>
+  </si>
+  <si>
+    <t>12/01/2013</t>
+  </si>
+  <si>
+    <t>Can't beat the price</t>
+  </si>
+  <si>
+    <t>Nice, clean hotel.  Located right off of Hwy 59 South in Rosenberg.  The room was clean.  Water pressure in the shower could have been better.  Price was right!  We did not eat breakfast there, so I am not sure what that was like.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r184610680-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>184610680</t>
+  </si>
+  <si>
+    <t>11/13/2013</t>
+  </si>
+  <si>
+    <t>Pit Stop</t>
+  </si>
+  <si>
+    <t>This is the second time we use Super 8 at Rosenberg. My husband and I have found this hotel to be centrally located to our destination and we have shopping stores and restaurants near by. Clean rooms, great location, confy beds...</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r179836080-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -1045,6 +1549,42 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r154963896-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>154963896</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Decent small motel on the southwest edge of the Greater Houston metropolitan area</t>
+  </si>
+  <si>
+    <t>On my recent trip to Houston I was looking for an affordable place to stay in an area I hadn't been to before, instead of staying somewhere closer to the city, at a higher price.  The Super 8 motel in Rosenberg, in Fort Bend County, Texas, fit the bill.  It's located on the US 59 Freeway, which will become Interstate 69 in the future.  It's south of the Brazos River, not too far from the wealthy suburb of Sugar Land.  I took the highway 36 exit off of the freeway, and quickly found the Super 8 motel, on the north side of the freeway, on the west side of Route 36, which is also South First Street in Rosenberg.  It's a two story motel, and I prefer an upper floor room.  A flight of stairs took me up to a balcony, which faces the parking lot to the south, and to my room.  The freeway was about a half a block to the south, but it was far enough away that I wasn't bothered by the sounds of trucks traveling on the road at night.  The Super 8 motel is well maintained, and I had no problems.  The only thing I didn't like was that there wasn't a big selection of channels to choose from on the TV.  One thing I did like was that breakfast was included in the price of the room, obtained in their breakfast area by...On my recent trip to Houston I was looking for an affordable place to stay in an area I hadn't been to before, instead of staying somewhere closer to the city, at a higher price.  The Super 8 motel in Rosenberg, in Fort Bend County, Texas, fit the bill.  It's located on the US 59 Freeway, which will become Interstate 69 in the future.  It's south of the Brazos River, not too far from the wealthy suburb of Sugar Land.  I took the highway 36 exit off of the freeway, and quickly found the Super 8 motel, on the north side of the freeway, on the west side of Route 36, which is also South First Street in Rosenberg.  It's a two story motel, and I prefer an upper floor room.  A flight of stairs took me up to a balcony, which faces the parking lot to the south, and to my room.  The freeway was about a half a block to the south, but it was far enough away that I wasn't bothered by the sounds of trucks traveling on the road at night.  The Super 8 motel is well maintained, and I had no problems.  The only thing I didn't like was that there wasn't a big selection of channels to choose from on the TV.  One thing I did like was that breakfast was included in the price of the room, obtained in their breakfast area by the front desk.      Rosenberg is a sizeable town, right on the southwest edge of the Houston Metropolitan area.  Just to the east of Rosenberg is the town of Richmond, TX, which is the county seat of Fort Bend County, one of the largest counties in population in the state of Texas.  Rosenberg is also a major railroad junction town.  The tracks of the Santa Fe Railroad, and the Union Pacific Railroad  go east to west on the north side of the downtown area.  There is a railroad museum there.  Amtrak trains between San Antonio and Houston go through Rosenberg, but I don't believe they stop.  I remember riding the Texas Chief on the Santa Fe RR back in the 1960's, from Chicago to Houston, and the train stopped in Rosenberg back then.      The bottom line is that I found the Super 8 motel in Rosenberg to be a decent place to spend the night, at a good price, and I would consider going back there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>On my recent trip to Houston I was looking for an affordable place to stay in an area I hadn't been to before, instead of staying somewhere closer to the city, at a higher price.  The Super 8 motel in Rosenberg, in Fort Bend County, Texas, fit the bill.  It's located on the US 59 Freeway, which will become Interstate 69 in the future.  It's south of the Brazos River, not too far from the wealthy suburb of Sugar Land.  I took the highway 36 exit off of the freeway, and quickly found the Super 8 motel, on the north side of the freeway, on the west side of Route 36, which is also South First Street in Rosenberg.  It's a two story motel, and I prefer an upper floor room.  A flight of stairs took me up to a balcony, which faces the parking lot to the south, and to my room.  The freeway was about a half a block to the south, but it was far enough away that I wasn't bothered by the sounds of trucks traveling on the road at night.  The Super 8 motel is well maintained, and I had no problems.  The only thing I didn't like was that there wasn't a big selection of channels to choose from on the TV.  One thing I did like was that breakfast was included in the price of the room, obtained in their breakfast area by...On my recent trip to Houston I was looking for an affordable place to stay in an area I hadn't been to before, instead of staying somewhere closer to the city, at a higher price.  The Super 8 motel in Rosenberg, in Fort Bend County, Texas, fit the bill.  It's located on the US 59 Freeway, which will become Interstate 69 in the future.  It's south of the Brazos River, not too far from the wealthy suburb of Sugar Land.  I took the highway 36 exit off of the freeway, and quickly found the Super 8 motel, on the north side of the freeway, on the west side of Route 36, which is also South First Street in Rosenberg.  It's a two story motel, and I prefer an upper floor room.  A flight of stairs took me up to a balcony, which faces the parking lot to the south, and to my room.  The freeway was about a half a block to the south, but it was far enough away that I wasn't bothered by the sounds of trucks traveling on the road at night.  The Super 8 motel is well maintained, and I had no problems.  The only thing I didn't like was that there wasn't a big selection of channels to choose from on the TV.  One thing I did like was that breakfast was included in the price of the room, obtained in their breakfast area by the front desk.      Rosenberg is a sizeable town, right on the southwest edge of the Houston Metropolitan area.  Just to the east of Rosenberg is the town of Richmond, TX, which is the county seat of Fort Bend County, one of the largest counties in population in the state of Texas.  Rosenberg is also a major railroad junction town.  The tracks of the Santa Fe Railroad, and the Union Pacific Railroad  go east to west on the north side of the downtown area.  There is a railroad museum there.  Amtrak trains between San Antonio and Houston go through Rosenberg, but I don't believe they stop.  I remember riding the Texas Chief on the Santa Fe RR back in the 1960's, from Chicago to Houston, and the train stopped in Rosenberg back then.      The bottom line is that I found the Super 8 motel in Rosenberg to be a decent place to spend the night, at a good price, and I would consider going back there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r154385305-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>154385305</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>Average accomodations</t>
+  </si>
+  <si>
+    <t>This was a last minute stay and we wanted something close and inexpensive. This Super 8 fit the bill. As stated in other reviews, the place was clean and neat.  We thought they missed an opportunity to take this property to another level with just a little more attention to make it feel welcoming. The breakfast area looked sad and the room itself a bit cold. Overall, it was certainly acceptable and the price was great.  For a quick trip, it fit the bill.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r151903429-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -1097,6 +1637,39 @@
   </si>
   <si>
     <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r145471442-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>145471442</t>
+  </si>
+  <si>
+    <t>11/15/2012</t>
+  </si>
+  <si>
+    <t>Just average!</t>
+  </si>
+  <si>
+    <t>Requested 1st floor room several weeks in advance,  Upon 4pm arrival was told only 2nd floor available.  Desk clerk was unable to figure out how to use prepaid Visa card to pay for room  Not a big problem, but front desk attendant's "so what "attitude was very gain irritating.   A light bulb at the bedside was burned out.   No TV channel line up available,   Again the desk clerk's attitude was that we were interrupting her quiet day with needless requests.    Towels were small and thin with bare minimum number supplied.  We booked this motel based on glowing  reviews, but found it to be barely average.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r138129862-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>138129862</t>
+  </si>
+  <si>
+    <t>08/23/2012</t>
+  </si>
+  <si>
+    <t>great hotel close to everything</t>
+  </si>
+  <si>
+    <t>Very nice hotel , clean ,quiet, convenient to fairgrounds,We were here 6 nights without a single problem. subway and taco bell/pizzahut right next door.. Room was comfortable, clean, w/micro/fridge. Bed was comfortable.Free wi-fi. and reasonable rates. Breakfast was very good w/ fruit,waffles,cereal, juice, coffee &amp; muffins..Manager was very helpful and friendly, as was the staff. Will definitely stay here when we return next year</t>
+  </si>
+  <si>
+    <t>August 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d1556883-r64604520-Super_8_by_Wyndham_Rosenberg_TX-Rosenberg_Texas.html</t>
@@ -1685,7 +2258,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1693,22 +2266,12 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1749,16 +2312,20 @@
       <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1779,9 +2346,15 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1796,62 +2369,62 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1867,7 +2440,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1876,39 +2449,49 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -1924,7 +2507,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1933,22 +2516,22 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
         <v>53</v>
@@ -1973,13 +2556,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -1995,7 +2578,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2004,29 +2587,31 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R7" t="n">
         <v>5</v>
@@ -2036,19 +2621,15 @@
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>91</v>
-      </c>
-      <c r="X7" t="s">
-        <v>85</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -2064,7 +2645,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2073,50 +2654,44 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" t="s">
         <v>96</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>97</v>
       </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>98</v>
-      </c>
       <c r="O8" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>100</v>
-      </c>
-      <c r="X8" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>101</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2131,34 +2706,34 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
         <v>102</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" t="s">
-        <v>105</v>
-      </c>
-      <c r="L9" t="s">
-        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2172,7 +2747,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -2188,56 +2763,62 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
         <v>108</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>109</v>
       </c>
-      <c r="J10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>107</v>
-      </c>
       <c r="O10" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R10" t="n">
         <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>110</v>
+      </c>
+      <c r="X10" t="s">
+        <v>111</v>
+      </c>
       <c r="Y10" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
@@ -2253,7 +2834,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2262,49 +2843,51 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
-      </c>
-      <c r="K11" t="s">
         <v>115</v>
       </c>
+      <c r="K11" t="s"/>
       <c r="L11" t="s">
         <v>116</v>
       </c>
       <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="N11" t="s">
-        <v>117</v>
-      </c>
-      <c r="O11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>117</v>
+      </c>
+      <c r="X11" t="s">
+        <v>111</v>
+      </c>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
@@ -2320,7 +2903,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2329,49 +2912,51 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
-      </c>
-      <c r="K12" t="s">
         <v>121</v>
       </c>
+      <c r="K12" t="s"/>
       <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
         <v>122</v>
       </c>
-      <c r="M12" t="n">
+      <c r="P12" t="n">
         <v>2</v>
       </c>
-      <c r="N12" t="s">
-        <v>117</v>
-      </c>
-      <c r="O12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S12" t="n">
         <v>3</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>123</v>
+      </c>
+      <c r="X12" t="s">
+        <v>111</v>
+      </c>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -2387,7 +2972,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2396,51 +2981,51 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="X13" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="Y13" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -2470,29 +3055,29 @@
       <c r="J14" t="s">
         <v>131</v>
       </c>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>4</v>
@@ -2500,9 +3085,15 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
+      <c r="W14" t="s">
+        <v>134</v>
+      </c>
+      <c r="X14" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2517,7 +3108,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2526,51 +3117,39 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
-      </c>
-      <c r="K15" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
       <c r="L15" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>68</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>136</v>
-      </c>
-      <c r="X15" t="s">
-        <v>137</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
@@ -2586,7 +3165,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2595,32 +3174,32 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
         <v>2</v>
@@ -2632,14 +3211,10 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>136</v>
-      </c>
-      <c r="X16" t="s">
-        <v>137</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17">
@@ -2655,7 +3230,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2664,53 +3239,49 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>147</v>
-      </c>
-      <c r="X17" t="s">
-        <v>148</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
@@ -2726,7 +3297,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2735,29 +3306,31 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
         <v>151</v>
       </c>
-      <c r="J18" t="s">
-        <v>152</v>
-      </c>
-      <c r="K18" t="s"/>
-      <c r="L18" t="s">
-        <v>90</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s">
-        <v>153</v>
-      </c>
       <c r="O18" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
         <v>4</v>
@@ -2767,19 +3340,15 @@
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>154</v>
-      </c>
-      <c r="X18" t="s">
-        <v>155</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19">
@@ -2795,7 +3364,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2804,43 +3373,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
         <v>161</v>
-      </c>
-      <c r="O19" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
-      <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="s">
-        <v>154</v>
-      </c>
-      <c r="X19" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="20">
@@ -2880,38 +3455,34 @@
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="O20" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S20" t="n">
         <v>3</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>169</v>
-      </c>
-      <c r="X20" t="s">
-        <v>170</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
@@ -2927,7 +3498,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2936,53 +3507,51 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J21" t="s">
-        <v>174</v>
-      </c>
-      <c r="K21" t="s">
-        <v>175</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="K21" t="s"/>
       <c r="L21" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
         <v>4</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="X21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Y21" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22">
@@ -2998,7 +3567,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3007,31 +3576,31 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="J22" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K22" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O22" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R22" t="n">
         <v>5</v>
@@ -3047,13 +3616,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="X22" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Y22" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23">
@@ -3069,62 +3638,58 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" t="s">
         <v>186</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
         <v>187</v>
       </c>
-      <c r="J23" t="s">
-        <v>188</v>
-      </c>
-      <c r="K23" t="s">
-        <v>189</v>
-      </c>
-      <c r="L23" t="s">
-        <v>190</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s">
-        <v>191</v>
-      </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>192</v>
-      </c>
-      <c r="X23" t="s">
-        <v>193</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
@@ -3140,7 +3705,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3149,52 +3714,44 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="J24" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s"/>
-      <c r="L24" t="s">
-        <v>90</v>
-      </c>
+      <c r="L24" t="s"/>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>177</v>
-      </c>
-      <c r="X24" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>92</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3209,7 +3766,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3218,49 +3775,51 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="J25" t="s">
-        <v>201</v>
-      </c>
-      <c r="K25" t="s">
-        <v>202</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="O25" t="s">
         <v>53</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="X25" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="Y25" t="s">
-        <v>204</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
@@ -3276,7 +3835,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3285,31 +3844,35 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="J26" t="s">
-        <v>207</v>
-      </c>
-      <c r="K26" t="s">
-        <v>208</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="K26" t="s"/>
       <c r="L26" t="s">
-        <v>209</v>
+        <v>116</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="O26" t="s">
-        <v>68</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
       <c r="S26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
@@ -3318,10 +3881,14 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>194</v>
+      </c>
+      <c r="X26" t="s">
+        <v>195</v>
+      </c>
       <c r="Y26" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27">
@@ -3337,7 +3904,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3346,49 +3913,51 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="J27" t="s">
-        <v>213</v>
-      </c>
-      <c r="K27" t="s">
-        <v>214</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="K27" t="s"/>
       <c r="L27" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O27" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
         <v>2</v>
       </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>203</v>
+      </c>
+      <c r="X27" t="s">
+        <v>204</v>
+      </c>
       <c r="Y27" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
@@ -3404,7 +3973,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3413,37 +3982,37 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="J28" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="K28" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="L28" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>202</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
         <v>2</v>
       </c>
-      <c r="N28" t="s">
-        <v>221</v>
-      </c>
-      <c r="O28" t="s">
-        <v>68</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3</v>
-      </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
@@ -3452,10 +4021,14 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>203</v>
+      </c>
+      <c r="X28" t="s">
+        <v>204</v>
+      </c>
       <c r="Y28" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29">
@@ -3471,7 +4044,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3480,49 +4053,53 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="J29" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="K29" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O29" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>216</v>
+      </c>
+      <c r="X29" t="s">
+        <v>217</v>
+      </c>
       <c r="Y29" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30">
@@ -3538,7 +4115,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3547,39 +4124,51 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="J30" t="s">
-        <v>230</v>
-      </c>
-      <c r="K30" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="K30" t="s"/>
       <c r="L30" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="O30" t="s">
-        <v>68</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>223</v>
+      </c>
+      <c r="X30" t="s">
+        <v>224</v>
+      </c>
       <c r="Y30" t="s">
-        <v>232</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
@@ -3595,7 +4184,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3604,49 +4193,43 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="J31" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="K31" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="L31" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O31" t="s">
-        <v>68</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>223</v>
+      </c>
+      <c r="X31" t="s">
+        <v>224</v>
+      </c>
       <c r="Y31" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32">
@@ -3662,7 +4245,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3671,44 +4254,52 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="J32" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="K32" t="s"/>
-      <c r="L32" t="s"/>
+      <c r="L32" t="s">
+        <v>116</v>
+      </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
         <v>4</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
-      <c r="Y32" t="s"/>
+      <c r="W32" t="s">
+        <v>234</v>
+      </c>
+      <c r="X32" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3723,7 +4314,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3732,44 +4323,44 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J33" t="s">
-        <v>244</v>
-      </c>
-      <c r="K33" t="s"/>
-      <c r="L33" t="s"/>
+        <v>237</v>
+      </c>
+      <c r="K33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L33" t="s">
+        <v>239</v>
+      </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="O33" t="s">
-        <v>68</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1</v>
-      </c>
-      <c r="R33" t="n">
-        <v>3</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>1</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
+      <c r="W33" t="s">
+        <v>223</v>
+      </c>
+      <c r="X33" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3784,46 +4375,46 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" t="s">
+        <v>243</v>
+      </c>
+      <c r="K34" t="s">
+        <v>244</v>
+      </c>
+      <c r="L34" t="s">
+        <v>245</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
         <v>246</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
-        <v>247</v>
-      </c>
-      <c r="J34" t="s">
-        <v>248</v>
-      </c>
-      <c r="K34" t="s">
-        <v>249</v>
-      </c>
-      <c r="L34" t="s">
-        <v>250</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="s">
-        <v>245</v>
-      </c>
       <c r="O34" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R34" t="n">
         <v>4</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
@@ -3832,10 +4423,14 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>247</v>
+      </c>
+      <c r="X34" t="s">
+        <v>248</v>
+      </c>
       <c r="Y34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35">
@@ -3851,48 +4446,62 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
         <v>251</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>252</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>253</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>254</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>246</v>
+      </c>
+      <c r="O35" t="s">
+        <v>72</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
         <v>255</v>
       </c>
-      <c r="M35" t="n">
-        <v>2</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="X35" t="s">
         <v>256</v>
       </c>
-      <c r="O35" t="s">
-        <v>111</v>
-      </c>
-      <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
-      <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36">
@@ -3908,7 +4517,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3917,47 +4526,51 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K36" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L36" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="O36" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>255</v>
+      </c>
+      <c r="X36" t="s">
+        <v>256</v>
+      </c>
       <c r="Y36" t="s">
         <v>263</v>
       </c>
@@ -3996,31 +4609,31 @@
         <v>268</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
         <v>269</v>
       </c>
       <c r="O37" t="s">
-        <v>68</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>3</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>270</v>
+      </c>
+      <c r="X37" t="s">
+        <v>256</v>
+      </c>
       <c r="Y37" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38">
@@ -4036,7 +4649,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4045,45 +4658,43 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J38" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K38" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O38" t="s">
-        <v>61</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
+      <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>4</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>255</v>
+      </c>
+      <c r="X38" t="s">
+        <v>256</v>
+      </c>
       <c r="Y38" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39">
@@ -4099,7 +4710,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4108,43 +4719,53 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J39" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K39" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L39" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="O39" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>284</v>
+      </c>
+      <c r="X39" t="s">
+        <v>285</v>
+      </c>
       <c r="Y39" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40">
@@ -4160,7 +4781,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4169,39 +4790,51 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="J40" t="s">
-        <v>284</v>
-      </c>
-      <c r="K40" t="s">
-        <v>285</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="K40" t="s"/>
       <c r="L40" t="s">
-        <v>286</v>
+        <v>116</v>
       </c>
       <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>290</v>
+      </c>
+      <c r="O40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
         <v>2</v>
       </c>
-      <c r="N40" t="s">
-        <v>275</v>
-      </c>
-      <c r="O40" t="s">
-        <v>68</v>
-      </c>
-      <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
-      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>255</v>
+      </c>
+      <c r="X40" t="s">
+        <v>256</v>
+      </c>
       <c r="Y40" t="s">
-        <v>286</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41">
@@ -4217,7 +4850,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4226,43 +4859,49 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="J41" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K41" t="s">
+        <v>294</v>
+      </c>
+      <c r="L41" t="s">
+        <v>295</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
         <v>290</v>
       </c>
-      <c r="L41" t="s">
-        <v>291</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="s">
-        <v>292</v>
-      </c>
       <c r="O41" t="s">
-        <v>68</v>
-      </c>
-      <c r="P41" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
       <c r="Q41" t="s"/>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
-      <c r="S41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>255</v>
+      </c>
+      <c r="X41" t="s">
+        <v>256</v>
+      </c>
       <c r="Y41" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42">
@@ -4278,7 +4917,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4287,46 +4926,44 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J42" t="s">
-        <v>296</v>
-      </c>
-      <c r="K42" t="s">
-        <v>297</v>
-      </c>
-      <c r="L42" t="s">
-        <v>298</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
       <c r="M42" t="n">
-        <v>2</v>
-      </c>
-      <c r="N42" t="s"/>
-      <c r="O42" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>300</v>
+      </c>
+      <c r="O42" t="s">
+        <v>72</v>
+      </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
-      <c r="Y42" t="s">
-        <v>299</v>
-      </c>
+      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4341,7 +4978,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4350,32 +4987,36 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J43" t="s">
-        <v>302</v>
-      </c>
-      <c r="K43" t="s">
         <v>303</v>
       </c>
+      <c r="K43" t="s"/>
       <c r="L43" t="s">
-        <v>304</v>
+        <v>116</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="O43" t="s">
         <v>53</v>
       </c>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
       <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
         <v>1</v>
       </c>
-      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
         <v>1</v>
@@ -4386,7 +5027,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>306</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
@@ -4402,48 +5043,52 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
+        <v>304</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>305</v>
+      </c>
+      <c r="J44" t="s">
+        <v>306</v>
+      </c>
+      <c r="K44" t="s">
         <v>307</v>
       </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="L44" t="s">
         <v>308</v>
       </c>
-      <c r="J44" t="s">
-        <v>309</v>
-      </c>
-      <c r="K44" t="s">
-        <v>310</v>
-      </c>
-      <c r="L44" t="s">
-        <v>311</v>
-      </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="O44" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
-      <c r="S44" t="s"/>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45">
@@ -4459,7 +5104,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4468,44 +5113,50 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="J45" t="s">
-        <v>316</v>
-      </c>
-      <c r="K45" t="s"/>
-      <c r="L45" t="s"/>
+        <v>311</v>
+      </c>
+      <c r="K45" t="s">
+        <v>312</v>
+      </c>
+      <c r="L45" t="s">
+        <v>313</v>
+      </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="O45" t="s">
         <v>53</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
+      <c r="Y45" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4520,50 +5171,50 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
+        <v>314</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>315</v>
+      </c>
+      <c r="J46" t="s">
+        <v>316</v>
+      </c>
+      <c r="K46" t="s">
+        <v>317</v>
+      </c>
+      <c r="L46" t="s">
         <v>318</v>
       </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
         <v>319</v>
       </c>
-      <c r="J46" t="s">
-        <v>320</v>
-      </c>
-      <c r="K46" t="s">
-        <v>321</v>
-      </c>
-      <c r="L46" t="s">
-        <v>322</v>
-      </c>
-      <c r="M46" t="n">
-        <v>4</v>
-      </c>
-      <c r="N46" t="s">
-        <v>317</v>
-      </c>
       <c r="O46" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4571,7 +5222,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47">
@@ -4587,59 +5238,53 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
+        <v>320</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>321</v>
+      </c>
+      <c r="J47" t="s">
+        <v>322</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
         <v>323</v>
       </c>
-      <c r="G47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H47" t="s">
-        <v>47</v>
-      </c>
-      <c r="I47" t="s">
-        <v>324</v>
-      </c>
-      <c r="J47" t="s">
-        <v>325</v>
-      </c>
-      <c r="K47" t="s">
-        <v>326</v>
-      </c>
-      <c r="L47" t="s">
-        <v>327</v>
-      </c>
-      <c r="M47" t="n">
-        <v>2</v>
-      </c>
-      <c r="N47" t="s">
-        <v>328</v>
-      </c>
       <c r="O47" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="P47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
-      <c r="Y47" t="s">
-        <v>327</v>
-      </c>
+      <c r="Y47" t="s"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4654,50 +5299,50 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
+        <v>324</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>325</v>
+      </c>
+      <c r="J48" t="s">
+        <v>326</v>
+      </c>
+      <c r="K48" t="s">
+        <v>327</v>
+      </c>
+      <c r="L48" t="s">
+        <v>328</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
         <v>329</v>
       </c>
-      <c r="G48" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" t="s">
-        <v>330</v>
-      </c>
-      <c r="J48" t="s">
-        <v>331</v>
-      </c>
-      <c r="K48" t="s">
-        <v>332</v>
-      </c>
-      <c r="L48" t="s">
-        <v>333</v>
-      </c>
-      <c r="M48" t="n">
-        <v>5</v>
-      </c>
-      <c r="N48" t="s">
-        <v>334</v>
-      </c>
       <c r="O48" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -4705,7 +5350,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49">
@@ -4721,7 +5366,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4730,28 +5375,28 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="J49" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K49" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L49" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="O49" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
         <v>5</v>
@@ -4772,7 +5417,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50">
@@ -4788,7 +5433,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4797,49 +5442,39 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="J50" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K50" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="L50" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="O50" t="s">
-        <v>61</v>
-      </c>
-      <c r="P50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>3</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51">
@@ -4855,7 +5490,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -4864,22 +5499,22 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J51" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="K51" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="L51" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="O51" t="s">
         <v>53</v>
@@ -4906,7 +5541,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52">
@@ -4922,7 +5557,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -4931,25 +5566,25 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="J52" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="K52" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L52" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>358</v>
+        <v>230</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -4973,7 +5608,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53">
@@ -4989,7 +5624,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -4998,50 +5633,44 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="J53" t="s">
-        <v>361</v>
-      </c>
-      <c r="K53" t="s">
-        <v>362</v>
-      </c>
-      <c r="L53" t="s">
-        <v>363</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="O53" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
-      <c r="Y53" t="s">
-        <v>363</v>
-      </c>
+      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5056,7 +5685,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5065,50 +5694,44 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="J54" t="s">
-        <v>367</v>
-      </c>
-      <c r="K54" t="s">
-        <v>368</v>
-      </c>
-      <c r="L54" t="s">
-        <v>369</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>370</v>
+        <v>230</v>
       </c>
       <c r="O54" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
-      <c r="Y54" t="s">
-        <v>369</v>
-      </c>
+      <c r="Y54" t="s"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5123,7 +5746,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5132,49 +5755,2331 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="J55" t="s">
-        <v>373</v>
-      </c>
-      <c r="K55" t="s">
-        <v>374</v>
-      </c>
-      <c r="L55" t="s">
-        <v>375</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="O55" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
-      <c r="Y55" t="s">
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>361</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>362</v>
+      </c>
+      <c r="J56" t="s">
+        <v>363</v>
+      </c>
+      <c r="K56" t="s">
+        <v>364</v>
+      </c>
+      <c r="L56" t="s">
+        <v>365</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>360</v>
+      </c>
+      <c r="O56" t="s">
+        <v>145</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>366</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>367</v>
+      </c>
+      <c r="J57" t="s">
+        <v>368</v>
+      </c>
+      <c r="K57" t="s">
+        <v>369</v>
+      </c>
+      <c r="L57" t="s">
+        <v>370</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>371</v>
+      </c>
+      <c r="O57" t="s">
+        <v>72</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>372</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>373</v>
+      </c>
+      <c r="J58" t="s">
+        <v>374</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>371</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
         <v>375</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>376</v>
+      </c>
+      <c r="J59" t="s">
+        <v>377</v>
+      </c>
+      <c r="K59" t="s">
+        <v>378</v>
+      </c>
+      <c r="L59" t="s">
+        <v>379</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>380</v>
+      </c>
+      <c r="O59" t="s">
+        <v>145</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>381</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>382</v>
+      </c>
+      <c r="J60" t="s">
+        <v>383</v>
+      </c>
+      <c r="K60" t="s">
+        <v>384</v>
+      </c>
+      <c r="L60" t="s">
+        <v>385</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>386</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>388</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>389</v>
+      </c>
+      <c r="J61" t="s">
+        <v>390</v>
+      </c>
+      <c r="K61" t="s">
+        <v>391</v>
+      </c>
+      <c r="L61" t="s">
+        <v>392</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>393</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>394</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>395</v>
+      </c>
+      <c r="J62" t="s">
+        <v>396</v>
+      </c>
+      <c r="K62" t="s">
+        <v>397</v>
+      </c>
+      <c r="L62" t="s">
+        <v>398</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>399</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>400</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>401</v>
+      </c>
+      <c r="J63" t="s">
+        <v>402</v>
+      </c>
+      <c r="K63" t="s">
+        <v>403</v>
+      </c>
+      <c r="L63" t="s">
+        <v>404</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>405</v>
+      </c>
+      <c r="O63" t="s">
+        <v>122</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>407</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>408</v>
+      </c>
+      <c r="J64" t="s">
+        <v>402</v>
+      </c>
+      <c r="K64" t="s">
+        <v>409</v>
+      </c>
+      <c r="L64" t="s">
+        <v>410</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>411</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>412</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>413</v>
+      </c>
+      <c r="J65" t="s">
+        <v>414</v>
+      </c>
+      <c r="K65" t="s">
+        <v>415</v>
+      </c>
+      <c r="L65" t="s">
+        <v>416</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>411</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>418</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>419</v>
+      </c>
+      <c r="J66" t="s">
+        <v>420</v>
+      </c>
+      <c r="K66" t="s">
+        <v>421</v>
+      </c>
+      <c r="L66" t="s">
+        <v>422</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>411</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>423</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>424</v>
+      </c>
+      <c r="J67" t="s">
+        <v>425</v>
+      </c>
+      <c r="K67" t="s">
+        <v>426</v>
+      </c>
+      <c r="L67" t="s">
+        <v>427</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>428</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>429</v>
+      </c>
+      <c r="J68" t="s">
+        <v>430</v>
+      </c>
+      <c r="K68" t="s">
+        <v>431</v>
+      </c>
+      <c r="L68" t="s">
+        <v>432</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>433</v>
+      </c>
+      <c r="O68" t="s">
+        <v>72</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>434</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>435</v>
+      </c>
+      <c r="J69" t="s">
+        <v>436</v>
+      </c>
+      <c r="K69" t="s">
+        <v>437</v>
+      </c>
+      <c r="L69" t="s">
+        <v>438</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>439</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>441</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>442</v>
+      </c>
+      <c r="J70" t="s">
+        <v>443</v>
+      </c>
+      <c r="K70" t="s">
+        <v>444</v>
+      </c>
+      <c r="L70" t="s">
+        <v>445</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>447</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>448</v>
+      </c>
+      <c r="J71" t="s">
+        <v>449</v>
+      </c>
+      <c r="K71" t="s">
+        <v>450</v>
+      </c>
+      <c r="L71" t="s">
+        <v>451</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>452</v>
+      </c>
+      <c r="O71" t="s">
+        <v>72</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>454</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>455</v>
+      </c>
+      <c r="J72" t="s">
+        <v>456</v>
+      </c>
+      <c r="K72" t="s">
+        <v>457</v>
+      </c>
+      <c r="L72" t="s">
+        <v>458</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>452</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>460</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>461</v>
+      </c>
+      <c r="J73" t="s">
+        <v>462</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>463</v>
+      </c>
+      <c r="O73" t="s">
+        <v>122</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>464</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>465</v>
+      </c>
+      <c r="J74" t="s">
+        <v>466</v>
+      </c>
+      <c r="K74" t="s">
+        <v>467</v>
+      </c>
+      <c r="L74" t="s">
+        <v>468</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>469</v>
+      </c>
+      <c r="O74" t="s">
+        <v>145</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>471</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>472</v>
+      </c>
+      <c r="J75" t="s">
+        <v>473</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>474</v>
+      </c>
+      <c r="O75" t="s">
+        <v>72</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>475</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>476</v>
+      </c>
+      <c r="J76" t="s">
+        <v>477</v>
+      </c>
+      <c r="K76" t="s">
+        <v>478</v>
+      </c>
+      <c r="L76" t="s">
+        <v>479</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>474</v>
+      </c>
+      <c r="O76" t="s">
+        <v>63</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>480</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>481</v>
+      </c>
+      <c r="J77" t="s">
+        <v>482</v>
+      </c>
+      <c r="K77" t="s">
+        <v>483</v>
+      </c>
+      <c r="L77" t="s">
+        <v>484</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>485</v>
+      </c>
+      <c r="O77" t="s">
+        <v>72</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>486</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>487</v>
+      </c>
+      <c r="J78" t="s">
+        <v>488</v>
+      </c>
+      <c r="K78" t="s">
+        <v>489</v>
+      </c>
+      <c r="L78" t="s">
+        <v>490</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>485</v>
+      </c>
+      <c r="O78" t="s">
+        <v>63</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>491</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>492</v>
+      </c>
+      <c r="J79" t="s">
+        <v>493</v>
+      </c>
+      <c r="K79" t="s">
+        <v>494</v>
+      </c>
+      <c r="L79" t="s">
+        <v>495</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>496</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>497</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>498</v>
+      </c>
+      <c r="J80" t="s">
+        <v>499</v>
+      </c>
+      <c r="K80" t="s">
+        <v>500</v>
+      </c>
+      <c r="L80" t="s">
+        <v>501</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>502</v>
+      </c>
+      <c r="O80" t="s">
+        <v>122</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>503</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>504</v>
+      </c>
+      <c r="J81" t="s">
+        <v>505</v>
+      </c>
+      <c r="K81" t="s">
+        <v>506</v>
+      </c>
+      <c r="L81" t="s">
+        <v>507</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>508</v>
+      </c>
+      <c r="O81" t="s">
+        <v>63</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>509</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>510</v>
+      </c>
+      <c r="J82" t="s">
+        <v>511</v>
+      </c>
+      <c r="K82" t="s">
+        <v>512</v>
+      </c>
+      <c r="L82" t="s">
+        <v>513</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>514</v>
+      </c>
+      <c r="O82" t="s">
+        <v>122</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>516</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>517</v>
+      </c>
+      <c r="J83" t="s">
+        <v>518</v>
+      </c>
+      <c r="K83" t="s">
+        <v>519</v>
+      </c>
+      <c r="L83" t="s">
+        <v>520</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>514</v>
+      </c>
+      <c r="O83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>521</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>522</v>
+      </c>
+      <c r="J84" t="s">
+        <v>523</v>
+      </c>
+      <c r="K84" t="s">
+        <v>524</v>
+      </c>
+      <c r="L84" t="s">
+        <v>525</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>526</v>
+      </c>
+      <c r="O84" t="s">
+        <v>63</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>527</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>528</v>
+      </c>
+      <c r="J85" t="s">
+        <v>529</v>
+      </c>
+      <c r="K85" t="s">
+        <v>530</v>
+      </c>
+      <c r="L85" t="s">
+        <v>531</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>532</v>
+      </c>
+      <c r="O85" t="s">
+        <v>72</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>533</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>534</v>
+      </c>
+      <c r="J86" t="s">
+        <v>535</v>
+      </c>
+      <c r="K86" t="s">
+        <v>536</v>
+      </c>
+      <c r="L86" t="s">
+        <v>537</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>538</v>
+      </c>
+      <c r="O86" t="s">
+        <v>72</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>539</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>540</v>
+      </c>
+      <c r="J87" t="s">
+        <v>541</v>
+      </c>
+      <c r="K87" t="s">
+        <v>542</v>
+      </c>
+      <c r="L87" t="s">
+        <v>543</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>538</v>
+      </c>
+      <c r="O87" t="s">
+        <v>63</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>544</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>545</v>
+      </c>
+      <c r="J88" t="s">
+        <v>546</v>
+      </c>
+      <c r="K88" t="s">
+        <v>547</v>
+      </c>
+      <c r="L88" t="s">
+        <v>548</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>549</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>550</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>551</v>
+      </c>
+      <c r="J89" t="s">
+        <v>552</v>
+      </c>
+      <c r="K89" t="s">
+        <v>553</v>
+      </c>
+      <c r="L89" t="s">
+        <v>554</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>555</v>
+      </c>
+      <c r="O89" t="s">
+        <v>145</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>556</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>557</v>
+      </c>
+      <c r="J90" t="s">
+        <v>558</v>
+      </c>
+      <c r="K90" t="s">
+        <v>559</v>
+      </c>
+      <c r="L90" t="s">
+        <v>560</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>561</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>60497</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>562</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>563</v>
+      </c>
+      <c r="J91" t="s">
+        <v>564</v>
+      </c>
+      <c r="K91" t="s">
+        <v>565</v>
+      </c>
+      <c r="L91" t="s">
+        <v>566</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>567</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>566</v>
       </c>
     </row>
   </sheetData>
